--- a/Python Algorithms/Microscopy_Sized_Results/data8_1002-data8_1010_p=S2/APD-Critical.xlsx
+++ b/Python Algorithms/Microscopy_Sized_Results/data8_1002-data8_1010_p=S2/APD-Critical.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01127461301039229</v>
+        <v>0.02482849174718652</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.9977811816145176</v>
+        <v>0.5258581729924248</v>
       </c>
       <c r="F2">
-        <v>0.002440690994262695</v>
+        <v>0.00147700309753418</v>
       </c>
       <c r="G2">
-        <v>1.000038383367402</v>
+        <v>0.9321986233199714</v>
       </c>
       <c r="H2">
-        <v>0.002002234168679123</v>
+        <v>0.4246209084909794</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C3">
-        <v>4.580258096400538</v>
+        <v>0.01783345510933001</v>
       </c>
       <c r="D3">
         <v>0.1</v>
       </c>
       <c r="E3">
-        <v>0.09861554758632844</v>
+        <v>0.09597165660891185</v>
       </c>
       <c r="F3">
-        <v>0.01741361618041992</v>
+        <v>0.01214742660522461</v>
       </c>
       <c r="G3">
-        <v>0.5193155783524712</v>
+        <v>0.4202413014769896</v>
       </c>
       <c r="H3">
-        <v>0.8964777424450066</v>
+        <v>0.9995179055598724</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C4">
-        <v>5.031145143781701</v>
+        <v>0.0164213905293778</v>
       </c>
       <c r="D4">
         <v>0.01</v>
       </c>
       <c r="E4">
-        <v>0.0098819946401572</v>
+        <v>0.009191907679646109</v>
       </c>
       <c r="F4">
-        <v>0.02553701400756836</v>
+        <v>0.01567673683166504</v>
       </c>
       <c r="G4">
-        <v>0.4274613713519534</v>
+        <v>0.3840137206941833</v>
       </c>
       <c r="H4">
-        <v>0.9870014535566367</v>
+        <v>1.001454739416743</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C5">
-        <v>5.076985649465683</v>
+        <v>0.0162577307947791</v>
       </c>
       <c r="D5">
         <v>0.001</v>
       </c>
       <c r="E5">
-        <v>0.0008606866167526492</v>
+        <v>0.000865954318978588</v>
       </c>
       <c r="F5">
-        <v>0.03205013275146484</v>
+        <v>0.01664972305297852</v>
       </c>
       <c r="G5">
-        <v>0.3889780627361822</v>
+        <v>0.3788511727583534</v>
       </c>
       <c r="H5">
-        <v>0.9982117357910687</v>
+        <v>1.001184230336942</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="C6">
-        <v>5.080912954424056</v>
+        <v>0.0162716547019297</v>
       </c>
       <c r="D6">
         <v>0.0001</v>
       </c>
       <c r="E6">
-        <v>8.780186771487675e-05</v>
+        <v>1.024758729066033E-05</v>
       </c>
       <c r="F6">
-        <v>0.03231215476989746</v>
+        <v>0.03315210342407227</v>
       </c>
       <c r="G6">
-        <v>0.3879605100042436</v>
+        <v>0.3213923581740306</v>
       </c>
       <c r="H6">
-        <v>0.999058798063907</v>
+        <v>1.000021672663769</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>192</v>
+        <v>340</v>
       </c>
       <c r="C7">
-        <v>5.081358617752973</v>
+        <v>0.0162719061963148</v>
       </c>
       <c r="D7">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="E7">
-        <v>9.633076870821238e-08</v>
+        <v>5.208235273072852E-06</v>
       </c>
       <c r="F7">
-        <v>0.04697608947753906</v>
+        <v>0.04103589057922363</v>
       </c>
       <c r="G7">
-        <v>0.3393089100583806</v>
+        <v>0.3154713773323671</v>
       </c>
       <c r="H7">
-        <v>1.000188482420247</v>
+        <v>1.000060652189648</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>842</v>
+        <v>1371</v>
       </c>
       <c r="C8">
-        <v>5.081362453214116</v>
+        <v>0.0162718105323924</v>
       </c>
       <c r="D8">
-        <v>1e-06</v>
+        <v>1E-06</v>
       </c>
       <c r="E8">
-        <v>6.584793248916115e-07</v>
+        <v>6.70880516300055E-07</v>
       </c>
       <c r="F8">
-        <v>0.2081449031829834</v>
+        <v>0.1571354866027832</v>
       </c>
       <c r="G8">
-        <v>0.3227907487739075</v>
+        <v>0.314508692893438</v>
       </c>
       <c r="H8">
-        <v>0.9999688995364289</v>
+        <v>1.000001297244201</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1120</v>
+        <v>2003</v>
       </c>
       <c r="C9">
-        <v>5.081359130367397</v>
+        <v>0.01627182013293765</v>
       </c>
       <c r="D9">
-        <v>1e-07</v>
+        <v>1E-07</v>
       </c>
       <c r="E9">
-        <v>4.550592553360534e-09</v>
+        <v>8.087003214294944E-08</v>
       </c>
       <c r="F9">
-        <v>0.2850618362426758</v>
+        <v>0.2385003566741943</v>
       </c>
       <c r="G9">
-        <v>0.3227688202046999</v>
+        <v>0.3145086357978283</v>
       </c>
       <c r="H9">
-        <v>0.9999724777120633</v>
+        <v>1.000001427590459</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3416</v>
+        <v>4927</v>
       </c>
       <c r="C10">
-        <v>5.081359061356066</v>
+        <v>0.01627182149237662</v>
       </c>
       <c r="D10">
-        <v>1.000000000000001e-08</v>
+        <v>1.000000000000001E-08</v>
       </c>
       <c r="E10">
-        <v>9.030681553743942e-09</v>
+        <v>2.675560581288834E-09</v>
       </c>
       <c r="F10">
-        <v>0.8627901077270508</v>
+        <v>0.5641875267028809</v>
       </c>
       <c r="G10">
-        <v>0.3227325422069534</v>
+        <v>0.3145086112517608</v>
       </c>
       <c r="H10">
-        <v>0.999999963768854</v>
+        <v>0.9999999953800502</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4217</v>
+        <v>7344</v>
       </c>
       <c r="C11">
-        <v>5.081359111534073</v>
+        <v>0.01627182144473407</v>
       </c>
       <c r="D11">
-        <v>1e-09</v>
+        <v>1E-09</v>
       </c>
       <c r="E11">
-        <v>8.442370394506287e-10</v>
+        <v>2.523568480798911E-10</v>
       </c>
       <c r="F11">
-        <v>1.057578563690186</v>
+        <v>0.8183765411376953</v>
       </c>
       <c r="G11">
-        <v>0.3227325419559343</v>
+        <v>0.3145086112470012</v>
       </c>
       <c r="H11">
-        <v>1.00000000346693</v>
+        <v>0.999999999946427</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4550</v>
+        <v>8491</v>
       </c>
       <c r="C12">
-        <v>5.081359107174807</v>
+        <v>0.01627182144738222</v>
       </c>
       <c r="D12">
-        <v>1.000000000000001e-10</v>
+        <v>1.000000000000001E-10</v>
       </c>
       <c r="E12">
-        <v>1.365681008238081e-11</v>
+        <v>8.961215849985801E-11</v>
       </c>
       <c r="F12">
-        <v>1.135571956634521</v>
+        <v>0.9302573204040527</v>
       </c>
       <c r="G12">
-        <v>0.3227325419356544</v>
+        <v>0.3145086112469971</v>
       </c>
       <c r="H12">
-        <v>0.999999997492024</v>
+        <v>1.00000000002805</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6882</v>
+        <v>9383</v>
       </c>
       <c r="C13">
-        <v>5.081359107202882</v>
+        <v>0.0162718214487454</v>
       </c>
       <c r="D13">
-        <v>1.000000000000001e-11</v>
+        <v>1.000000000000001E-11</v>
       </c>
       <c r="E13">
-        <v>8.131650522865409e-12</v>
+        <v>5.836632436103E-12</v>
       </c>
       <c r="F13">
-        <v>1.689937353134155</v>
+        <v>1.030184984207153</v>
       </c>
       <c r="G13">
-        <v>0.3227325419264696</v>
+        <v>0.3145086112469967</v>
       </c>
       <c r="H13">
-        <v>0.9999999999042946</v>
+        <v>1.000000000013417</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9679</v>
+        <v>11987</v>
       </c>
       <c r="C14">
-        <v>5.081359107244866</v>
+        <v>0.01627182144884875</v>
       </c>
       <c r="D14">
-        <v>1.000000000000001e-12</v>
+        <v>1.000000000000001E-12</v>
       </c>
       <c r="E14">
-        <v>1.307440477860652e-13</v>
+        <v>5.14708508100849E-13</v>
       </c>
       <c r="F14">
-        <v>2.352682113647461</v>
+        <v>1.300321340560913</v>
       </c>
       <c r="G14">
-        <v>0.3227325419264704</v>
+        <v>0.3145086112469969</v>
       </c>
       <c r="H14">
-        <v>0.9999999999995758</v>
+        <v>1.000000000000068</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11011</v>
+        <v>14084</v>
       </c>
       <c r="C15">
-        <v>5.081359107243751</v>
+        <v>0.01627182144884111</v>
       </c>
       <c r="D15">
-        <v>1.000000000000001e-13</v>
+        <v>1.000000000000001E-13</v>
       </c>
       <c r="E15">
-        <v>8.879408592957371e-14</v>
+        <v>4.520223849104391E-14</v>
       </c>
       <c r="F15">
-        <v>2.677635669708252</v>
+        <v>1.545640707015991</v>
       </c>
       <c r="G15">
-        <v>0.3227325419264728</v>
+        <v>0.314508611246997</v>
       </c>
       <c r="H15">
-        <v>0.9999999999999889</v>
+        <v>0.9999999999999623</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11078</v>
+        <v>15293</v>
       </c>
       <c r="C16">
-        <v>5.08135910724423</v>
+        <v>0.01627182144884023</v>
       </c>
       <c r="D16">
-        <v>1.000000000000001e-14</v>
+        <v>1.000000000000001E-14</v>
       </c>
       <c r="E16">
-        <v>5.593328247532203e-15</v>
+        <v>8.528724243593191E-15</v>
       </c>
       <c r="F16">
-        <v>2.693125009536743</v>
+        <v>1.670400142669678</v>
       </c>
       <c r="G16">
-        <v>0.3227325419264729</v>
+        <v>0.3145086112469971</v>
       </c>
       <c r="H16">
-        <v>0.9999999999998455</v>
+        <v>1.000000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,51 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14009</v>
+        <v>16058</v>
       </c>
       <c r="C17">
-        <v>5.081359107244202</v>
+        <v>0.01627182144884038</v>
       </c>
       <c r="D17">
-        <v>1.000000000000001e-15</v>
+        <v>1.000000000000001E-15</v>
       </c>
       <c r="E17">
+        <v>4.264362121796595E-16</v>
+      </c>
+      <c r="F17">
+        <v>1.744262933731079</v>
+      </c>
+      <c r="G17">
+        <v>0.3145086112469971</v>
+      </c>
+      <c r="H17">
+        <v>0.9999999999999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>20381</v>
+      </c>
+      <c r="C18">
+        <v>0.01627182144884037</v>
+      </c>
+      <c r="D18">
+        <v>1.000000000000001E-16</v>
+      </c>
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>3.397082805633545</v>
-      </c>
-      <c r="G17">
-        <v>0.3227325419264785</v>
-      </c>
-      <c r="H17">
-        <v>0.9999999999999993</v>
+      <c r="F18">
+        <v>2.178306341171265</v>
+      </c>
+      <c r="G18">
+        <v>0.3145086112469976</v>
+      </c>
+      <c r="H18">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
